--- a/public/assets/template/excel/template_excel_tkbm.xlsx
+++ b/public/assets/template/excel/template_excel_tkbm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\pt_bas\project_warehouse\public\assets\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDD638-CE3E-4866-B572-E718D258679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27EB133-4CB0-4396-A5C0-4055BE826DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{08FE8356-A0DE-4908-A824-3DC70A079427}"/>
   </bookViews>
@@ -48,13 +48,7 @@
     <t>Grup : Alvi Yana Jaya</t>
   </si>
   <si>
-    <t>Qty Terpal</t>
-  </si>
-  <si>
     <t>Qty Slipsheet</t>
-  </si>
-  <si>
-    <t>Qty Pallet</t>
   </si>
   <si>
     <t>Total</t>
@@ -82,6 +76,14 @@
   </si>
   <si>
     <t>Grand Total BPS</t>
+  </si>
+  <si>
+    <t>Qty
+Terpal</t>
+  </si>
+  <si>
+    <t>Qty
+Pallet</t>
   </si>
 </sst>
 </file>
@@ -245,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -283,11 +285,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,7 +325,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>137582</xdr:colOff>
+      <xdr:colOff>61382</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -661,14 +669,12 @@
   <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:W10"/>
+      <selection activeCell="O15" sqref="O15:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="10" width="2" customWidth="1"/>
-    <col min="11" max="14" width="3.6328125" customWidth="1"/>
-    <col min="15" max="18" width="2.1796875" customWidth="1"/>
+    <col min="1" max="29" width="3.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
@@ -679,32 +685,32 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="14"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
@@ -714,30 +720,30 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
@@ -747,30 +753,30 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
@@ -780,37 +786,65 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
       <c r="S4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -822,25 +856,25 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -1444,7 +1478,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1632,7 +1666,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1728,13 +1762,13 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="AC37" s="6"/>
     </row>
@@ -1757,16 +1791,16 @@
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R42" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="X42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC42" s="6"/>
     </row>
@@ -1802,7 +1836,7 @@
       <c r="AC43" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="138">
     <mergeCell ref="S7:W8"/>
     <mergeCell ref="X7:AC8"/>
     <mergeCell ref="V1:AC1"/>
@@ -1820,6 +1854,7 @@
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="S4:U4"/>
+    <mergeCell ref="A6:AC6"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="K10:N10"/>
@@ -1942,6 +1977,7 @@
     <mergeCell ref="X28:AC29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>